--- a/results/cifar100_training/results_naive_joint-training_cifar100.xlsx
+++ b/results/cifar100_training/results_naive_joint-training_cifar100.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="naive_after_task1" sheetId="1" r:id="rId1"/>
+    <sheet name="joint-datasets_after_task1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.907518432578262</v>
+        <v>3.918494273291694</v>
       </c>
       <c r="D3">
-        <v>3.68152232170105</v>
+        <v>3.668997688293457</v>
       </c>
       <c r="E3">
-        <v>13.18</v>
+        <v>13.71</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -478,10 +478,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.0182057416677475</v>
+        <v>0.01824049613475799</v>
       </c>
       <c r="J3">
-        <v>13.18</v>
+        <v>13.71</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -492,13 +492,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3.225726675500675</v>
+        <v>3.329281957414415</v>
       </c>
       <c r="D4">
-        <v>3.4006432056427</v>
+        <v>3.310175447463989</v>
       </c>
       <c r="E4">
-        <v>17.99</v>
+        <v>20.09</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -507,10 +507,10 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>0.01694952392578125</v>
+        <v>0.01634105877876282</v>
       </c>
       <c r="J4">
-        <v>17.99</v>
+        <v>20.09</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -521,13 +521,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.828257579219585</v>
+        <v>2.956839343176948</v>
       </c>
       <c r="D5">
-        <v>2.869772338867187</v>
+        <v>3.040581960678101</v>
       </c>
       <c r="E5">
-        <v>26.3</v>
+        <v>24.24</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -536,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>0.01437624044418335</v>
+        <v>0.01497891943454742</v>
       </c>
       <c r="J5">
-        <v>26.3</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -550,13 +550,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.538216307698464</v>
+        <v>2.674733493593004</v>
       </c>
       <c r="D6">
-        <v>2.668144798278809</v>
+        <v>2.768585596084595</v>
       </c>
       <c r="E6">
-        <v>31.15</v>
+        <v>29.61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -565,10 +565,10 @@
         <v>4</v>
       </c>
       <c r="I6">
-        <v>0.01325429353713989</v>
+        <v>0.01366797437667847</v>
       </c>
       <c r="J6">
-        <v>31.15</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -579,13 +579,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.319044301947769</v>
+        <v>2.452956551445855</v>
       </c>
       <c r="D7">
-        <v>2.61923041343689</v>
+        <v>2.84297324180603</v>
       </c>
       <c r="E7">
-        <v>30.69</v>
+        <v>27.97</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -594,10 +594,10 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <v>0.01314735450744629</v>
+        <v>0.01415626933574676</v>
       </c>
       <c r="J7">
-        <v>30.69</v>
+        <v>27.97</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -608,13 +608,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.151478877359507</v>
+        <v>2.273474664688111</v>
       </c>
       <c r="D8">
-        <v>2.340875005722046</v>
+        <v>2.474572916030884</v>
       </c>
       <c r="E8">
-        <v>38.06</v>
+        <v>36.25</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -623,10 +623,10 @@
         <v>6</v>
       </c>
       <c r="I8">
-        <v>0.01160892217159271</v>
+        <v>0.01214034621715546</v>
       </c>
       <c r="J8">
-        <v>38.06</v>
+        <v>36.25</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -637,13 +637,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.013061156078261</v>
+        <v>2.130468515290154</v>
       </c>
       <c r="D9">
-        <v>2.354552888870239</v>
+        <v>2.62041241645813</v>
       </c>
       <c r="E9">
-        <v>38.49</v>
+        <v>33.3</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -652,10 +652,10 @@
         <v>7</v>
       </c>
       <c r="I9">
-        <v>0.01169085984230041</v>
+        <v>0.01307356290817261</v>
       </c>
       <c r="J9">
-        <v>38.49</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -666,13 +666,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.900889185983307</v>
+        <v>2.007545682059394</v>
       </c>
       <c r="D10">
-        <v>2.203935623168945</v>
+        <v>2.417155933380127</v>
       </c>
       <c r="E10">
-        <v>41.25</v>
+        <v>38.3</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -681,10 +681,10 @@
         <v>8</v>
       </c>
       <c r="I10">
-        <v>0.0108995096206665</v>
+        <v>0.01200385262966156</v>
       </c>
       <c r="J10">
-        <v>41.25</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -695,13 +695,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.797515378192979</v>
+        <v>1.89463817331526</v>
       </c>
       <c r="D11">
-        <v>2.175488758087158</v>
+        <v>2.238714647293091</v>
       </c>
       <c r="E11">
-        <v>42.79</v>
+        <v>41.03</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -710,10 +710,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>0.01068340430259705</v>
+        <v>0.0111312420129776</v>
       </c>
       <c r="J11">
-        <v>42.79</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -724,13 +724,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.710371333725598</v>
+        <v>1.800584742758009</v>
       </c>
       <c r="D12">
-        <v>2.141770219802857</v>
+        <v>2.225303735733032</v>
       </c>
       <c r="E12">
-        <v>42.53</v>
+        <v>41.01</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -739,10 +739,10 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>0.0107197998046875</v>
+        <v>0.01114006059169769</v>
       </c>
       <c r="J12">
-        <v>42.53</v>
+        <v>41.01</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -753,13 +753,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.632000290131082</v>
+        <v>1.710838945176866</v>
       </c>
       <c r="D13">
-        <v>2.123248434066773</v>
+        <v>2.150233263969421</v>
       </c>
       <c r="E13">
-        <v>44.08</v>
+        <v>43.1</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -768,10 +768,10 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>0.01045400480031967</v>
+        <v>0.0106656606554985</v>
       </c>
       <c r="J13">
-        <v>44.08</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -782,13 +782,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.551110524547343</v>
+        <v>1.633768646452162</v>
       </c>
       <c r="D14">
-        <v>2.126596307754517</v>
+        <v>2.111660628318786</v>
       </c>
       <c r="E14">
-        <v>44.59</v>
+        <v>43.15</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>12</v>
       </c>
       <c r="I14">
-        <v>0.01049829963445663</v>
+        <v>0.01065636731386185</v>
       </c>
       <c r="J14">
-        <v>44.59</v>
+        <v>43.15</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -811,13 +811,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.483978238397715</v>
+        <v>1.553494999143812</v>
       </c>
       <c r="D15">
-        <v>2.087286972999573</v>
+        <v>2.383521327972412</v>
       </c>
       <c r="E15">
-        <v>45.26</v>
+        <v>40.56</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -826,10 +826,10 @@
         <v>13</v>
       </c>
       <c r="I15">
-        <v>0.01016970854997635</v>
+        <v>0.01186143044233322</v>
       </c>
       <c r="J15">
-        <v>45.26</v>
+        <v>40.56</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -840,13 +840,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.414116565062075</v>
+        <v>1.482246497472127</v>
       </c>
       <c r="D16">
-        <v>2.309151887893677</v>
+        <v>2.326114540100098</v>
       </c>
       <c r="E16">
-        <v>41.8</v>
+        <v>41.99</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>14</v>
       </c>
       <c r="I16">
-        <v>0.01134153590202332</v>
+        <v>0.0115641282081604</v>
       </c>
       <c r="J16">
-        <v>41.8</v>
+        <v>41.99</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -869,13 +869,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.351183816364833</v>
+        <v>1.417229968706767</v>
       </c>
       <c r="D17">
-        <v>2.028412818908691</v>
+        <v>2.259857697486877</v>
       </c>
       <c r="E17">
-        <v>44.92</v>
+        <v>41.86</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -884,10 +884,10 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>0.01035841760635376</v>
+        <v>0.01131694558858871</v>
       </c>
       <c r="J17">
-        <v>44.92</v>
+        <v>41.86</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -898,13 +898,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.285563539485542</v>
+        <v>1.342169585757785</v>
       </c>
       <c r="D18">
-        <v>2.131361413002014</v>
+        <v>2.154725122451782</v>
       </c>
       <c r="E18">
-        <v>45.59</v>
+        <v>44.62</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -913,10 +913,10 @@
         <v>16</v>
       </c>
       <c r="I18">
-        <v>0.010543901014328</v>
+        <v>0.01073354250192642</v>
       </c>
       <c r="J18">
-        <v>45.59</v>
+        <v>44.62</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -927,13 +927,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.226139755638278</v>
+        <v>1.283520460658603</v>
       </c>
       <c r="D19">
-        <v>2.178404331207275</v>
+        <v>2.182112832069397</v>
       </c>
       <c r="E19">
-        <v>44.07</v>
+        <v>45.15</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -942,10 +942,10 @@
         <v>17</v>
       </c>
       <c r="I19">
-        <v>0.01102238745689392</v>
+        <v>0.01083021525144577</v>
       </c>
       <c r="J19">
-        <v>44.07</v>
+        <v>45.15</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -956,13 +956,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.168558848390774</v>
+        <v>1.356951496866014</v>
       </c>
       <c r="D20">
-        <v>2.06583182811737</v>
+        <v>1.902456116676331</v>
       </c>
       <c r="E20">
-        <v>46.32</v>
+        <v>48.55</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -971,10 +971,10 @@
         <v>18</v>
       </c>
       <c r="I20">
-        <v>0.01049116849899292</v>
+        <v>0.009425257515907287</v>
       </c>
       <c r="J20">
-        <v>46.32</v>
+        <v>48.55</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -985,13 +985,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.110941826324074</v>
+        <v>1.28929979801178</v>
       </c>
       <c r="D21">
-        <v>2.110654163360596</v>
+        <v>1.909884910583496</v>
       </c>
       <c r="E21">
-        <v>45.82</v>
+        <v>48.75</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1000,10 +1000,10 @@
         <v>19</v>
       </c>
       <c r="I21">
-        <v>0.01068767796754837</v>
+        <v>0.009460268962383269</v>
       </c>
       <c r="J21">
-        <v>45.82</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1014,13 +1014,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.058759650892141</v>
+        <v>1.252987093925476</v>
       </c>
       <c r="D22">
-        <v>2.237287378311157</v>
+        <v>1.924414305686951</v>
       </c>
       <c r="E22">
-        <v>43.68</v>
+        <v>48.8</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1029,10 +1029,10 @@
         <v>20</v>
       </c>
       <c r="I22">
-        <v>0.0114053869843483</v>
+        <v>0.009552257227897643</v>
       </c>
       <c r="J22">
-        <v>43.68</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1043,13 +1043,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.080328555496372</v>
+        <v>1.218699714342753</v>
       </c>
       <c r="D23">
-        <v>1.830563235282898</v>
+        <v>1.96317008972168</v>
       </c>
       <c r="E23">
-        <v>50.24</v>
+        <v>47.8</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1058,10 +1058,10 @@
         <v>21</v>
       </c>
       <c r="I23">
-        <v>0.009227672755718232</v>
+        <v>0.009688619220256805</v>
       </c>
       <c r="J23">
-        <v>50.24</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1072,13 +1072,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.012004008828377</v>
+        <v>1.185857849386003</v>
       </c>
       <c r="D24">
-        <v>1.896197128295898</v>
+        <v>1.952775983810425</v>
       </c>
       <c r="E24">
-        <v>50.07</v>
+        <v>48.17</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1087,10 +1087,10 @@
         <v>22</v>
       </c>
       <c r="I24">
-        <v>0.009472247290611267</v>
+        <v>0.009651916718482971</v>
       </c>
       <c r="J24">
-        <v>50.07</v>
+        <v>48.17</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1101,13 +1101,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9775946660917633</v>
+        <v>1.153948659631941</v>
       </c>
       <c r="D25">
-        <v>1.856556034088135</v>
+        <v>1.965516324043274</v>
       </c>
       <c r="E25">
-        <v>50.1</v>
+        <v>47.92</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1116,10 +1116,10 @@
         <v>23</v>
       </c>
       <c r="I25">
-        <v>0.009415535378456116</v>
+        <v>0.009790390431880951</v>
       </c>
       <c r="J25">
-        <v>50.1</v>
+        <v>47.92</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1130,13 +1130,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9490462848118373</v>
+        <v>1.262865560319689</v>
       </c>
       <c r="D26">
-        <v>1.886964559555054</v>
+        <v>1.884373531341553</v>
       </c>
       <c r="E26">
-        <v>50.05</v>
+        <v>49.28</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1145,10 +1145,10 @@
         <v>24</v>
       </c>
       <c r="I26">
-        <v>0.009513014876842498</v>
+        <v>0.009309570682048797</v>
       </c>
       <c r="J26">
-        <v>50.05</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1159,13 +1159,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9196300645263827</v>
+        <v>1.247145944701301</v>
       </c>
       <c r="D27">
-        <v>1.870272970199585</v>
+        <v>1.883588781356812</v>
       </c>
       <c r="E27">
-        <v>50.32</v>
+        <v>49.21</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1174,10 +1174,10 @@
         <v>25</v>
       </c>
       <c r="I27">
-        <v>0.009533645582199097</v>
+        <v>0.009320940446853637</v>
       </c>
       <c r="J27">
-        <v>50.32</v>
+        <v>49.21</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1188,13 +1188,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.8916402103949567</v>
+        <v>1.234420971075694</v>
       </c>
       <c r="D28">
-        <v>1.921557974815369</v>
+        <v>1.888651022911072</v>
       </c>
       <c r="E28">
-        <v>49.68</v>
+        <v>49.27</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1203,10 +1203,10 @@
         <v>26</v>
       </c>
       <c r="I28">
-        <v>0.009702119433879853</v>
+        <v>0.009336944842338562</v>
       </c>
       <c r="J28">
-        <v>49.68</v>
+        <v>49.27</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1217,13 +1217,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.9860801684613131</v>
+        <v>1.226133259137472</v>
       </c>
       <c r="D29">
-        <v>1.80990138053894</v>
+        <v>1.889580140113831</v>
       </c>
       <c r="E29">
-        <v>51.37</v>
+        <v>49.1</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1232,10 +1232,10 @@
         <v>27</v>
       </c>
       <c r="I29">
-        <v>0.009082045638561249</v>
+        <v>0.009347826743125915</v>
       </c>
       <c r="J29">
-        <v>51.37</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1246,13 +1246,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.969751639998689</v>
+        <v>1.214604782528347</v>
       </c>
       <c r="D30">
-        <v>1.810587000846863</v>
+        <v>1.890507183074951</v>
       </c>
       <c r="E30">
-        <v>50.81</v>
+        <v>49.34</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1261,10 +1261,10 @@
         <v>28</v>
       </c>
       <c r="I30">
-        <v>0.00911254403591156</v>
+        <v>0.00935202819108963</v>
       </c>
       <c r="J30">
-        <v>50.81</v>
+        <v>49.34</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1275,13 +1275,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.95773686170578</v>
+        <v>1.207312098079258</v>
       </c>
       <c r="D31">
-        <v>1.817256212234497</v>
+        <v>1.89457049369812</v>
       </c>
       <c r="E31">
-        <v>50.74</v>
+        <v>48.99</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1290,10 +1290,10 @@
         <v>29</v>
       </c>
       <c r="I31">
-        <v>0.009138421678543091</v>
+        <v>0.009381552672386169</v>
       </c>
       <c r="J31">
-        <v>50.74</v>
+        <v>48.99</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1304,13 +1304,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.9487924991821756</v>
+        <v>1.197794361379412</v>
       </c>
       <c r="D32">
-        <v>1.815584230422974</v>
+        <v>1.89603512763977</v>
       </c>
       <c r="E32">
-        <v>50.82</v>
+        <v>49.26</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>30</v>
       </c>
       <c r="I32">
-        <v>0.009159083986282349</v>
+        <v>0.009388120913505554</v>
       </c>
       <c r="J32">
-        <v>50.82</v>
+        <v>49.26</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1333,13 +1333,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.9411301009509028</v>
+        <v>1.229177800284492</v>
       </c>
       <c r="D33">
-        <v>1.81985182762146</v>
+        <v>1.883371248245239</v>
       </c>
       <c r="E33">
-        <v>50.81</v>
+        <v>49.36</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1348,10 +1348,10 @@
         <v>31</v>
       </c>
       <c r="I33">
-        <v>0.009168276345729828</v>
+        <v>0.009314729177951812</v>
       </c>
       <c r="J33">
-        <v>50.81</v>
+        <v>49.36</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1362,13 +1362,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.9320848698518714</v>
+        <v>1.225623777177599</v>
       </c>
       <c r="D34">
-        <v>1.828747081756592</v>
+        <v>1.884956669807434</v>
       </c>
       <c r="E34">
-        <v>50.69</v>
+        <v>49.34</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1377,10 +1377,10 @@
         <v>32</v>
       </c>
       <c r="I34">
-        <v>0.00920013290643692</v>
+        <v>0.009319575476646424</v>
       </c>
       <c r="J34">
-        <v>50.69</v>
+        <v>49.34</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1391,13 +1391,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.9649971222390934</v>
+        <v>1.225096664163801</v>
       </c>
       <c r="D35">
-        <v>1.805502438545227</v>
+        <v>1.883209114074707</v>
       </c>
       <c r="E35">
-        <v>51.14</v>
+        <v>49.27</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1406,10 +1406,10 @@
         <v>33</v>
       </c>
       <c r="I35">
-        <v>0.009068839001655579</v>
+        <v>0.009322001469135284</v>
       </c>
       <c r="J35">
-        <v>51.14</v>
+        <v>49.27</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1420,13 +1420,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.9622558352898578</v>
+        <v>1.220825915336609</v>
       </c>
       <c r="D36">
-        <v>1.808143806457519</v>
+        <v>1.883412671089172</v>
       </c>
       <c r="E36">
-        <v>51.02</v>
+        <v>49.41</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1435,10 +1435,10 @@
         <v>34</v>
       </c>
       <c r="I36">
-        <v>0.009091730403900147</v>
+        <v>0.009321438050270081</v>
       </c>
       <c r="J36">
-        <v>51.02</v>
+        <v>49.41</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1449,13 +1449,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.9576453318401259</v>
+        <v>1.220025650130378</v>
       </c>
       <c r="D37">
-        <v>1.806058645248413</v>
+        <v>1.884477229118347</v>
       </c>
       <c r="E37">
-        <v>51.03</v>
+        <v>49.47</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1464,10 +1464,10 @@
         <v>35</v>
       </c>
       <c r="I37">
-        <v>0.009081298100948335</v>
+        <v>0.009328422248363494</v>
       </c>
       <c r="J37">
-        <v>51.03</v>
+        <v>49.47</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1478,13 +1478,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.9553866632130681</v>
+        <v>1.215771516693963</v>
       </c>
       <c r="D38">
-        <v>1.809515786170959</v>
+        <v>1.88389265537262</v>
       </c>
       <c r="E38">
-        <v>51.11</v>
+        <v>49.49</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>36</v>
       </c>
       <c r="I38">
-        <v>0.009093507170677185</v>
+        <v>0.009326774680614472</v>
       </c>
       <c r="J38">
-        <v>51.11</v>
+        <v>49.49</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1507,13 +1507,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.951485163095046</v>
+        <v>1.214217896991306</v>
       </c>
       <c r="D39">
-        <v>1.810867238044739</v>
+        <v>1.887519946098328</v>
       </c>
       <c r="E39">
-        <v>51.09</v>
+        <v>49.48</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1522,10 +1522,10 @@
         <v>37</v>
       </c>
       <c r="I39">
-        <v>0.009101214277744293</v>
+        <v>0.009334433019161224</v>
       </c>
       <c r="J39">
-        <v>51.09</v>
+        <v>49.48</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1536,13 +1536,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.9514853453149601</v>
+        <v>1.212401366233826</v>
       </c>
       <c r="D40">
-        <v>1.809004378318787</v>
+        <v>1.884832863807678</v>
       </c>
       <c r="E40">
-        <v>50.88</v>
+        <v>49.39</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1551,10 +1551,10 @@
         <v>38</v>
       </c>
       <c r="I40">
-        <v>0.009101193571090698</v>
+        <v>0.009330078661441803</v>
       </c>
       <c r="J40">
-        <v>50.88</v>
+        <v>49.39</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1565,13 +1565,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.9584314307387994</v>
+        <v>1.221589766608344</v>
       </c>
       <c r="D41">
-        <v>1.807951498031616</v>
+        <v>1.882504839897156</v>
       </c>
       <c r="E41">
-        <v>51.27</v>
+        <v>49.25</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1580,10 +1580,10 @@
         <v>39</v>
       </c>
       <c r="I41">
-        <v>0.009077413797378539</v>
+        <v>0.009314165782928466</v>
       </c>
       <c r="J41">
-        <v>51.27</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1594,13 +1594,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.9598965119342415</v>
+        <v>1.218060270945231</v>
       </c>
       <c r="D42">
-        <v>1.807940530776978</v>
+        <v>1.883817148208618</v>
       </c>
       <c r="E42">
-        <v>51.04</v>
+        <v>49.3</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1609,10 +1609,10 @@
         <v>40</v>
       </c>
       <c r="I42">
-        <v>0.009079689800739288</v>
+        <v>0.009318997454643249</v>
       </c>
       <c r="J42">
-        <v>51.04</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1623,13 +1623,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.9577648535066722</v>
+        <v>1.219218468930986</v>
       </c>
       <c r="D43">
-        <v>1.804795503616333</v>
+        <v>1.884390201568604</v>
       </c>
       <c r="E43">
-        <v>51.15</v>
+        <v>49.4</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1638,10 +1638,10 @@
         <v>41</v>
       </c>
       <c r="I43">
-        <v>0.009078487658500672</v>
+        <v>0.009319932687282562</v>
       </c>
       <c r="J43">
-        <v>51.15</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1652,13 +1652,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.9574818146472075</v>
+        <v>1.21764141480128</v>
       </c>
       <c r="D44">
-        <v>1.807435584068298</v>
+        <v>1.882481722831726</v>
       </c>
       <c r="E44">
-        <v>51.14</v>
+        <v>49.57</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1667,10 +1667,10 @@
         <v>42</v>
       </c>
       <c r="I44">
-        <v>0.009086808431148528</v>
+        <v>0.009319509196281434</v>
       </c>
       <c r="J44">
-        <v>51.14</v>
+        <v>49.57</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1681,13 +1681,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.9558531824423342</v>
+        <v>1.218737951119741</v>
       </c>
       <c r="D45">
-        <v>1.805402398109436</v>
+        <v>1.884937329292297</v>
       </c>
       <c r="E45">
-        <v>51.18</v>
+        <v>49.37</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1696,10 +1696,10 @@
         <v>43</v>
       </c>
       <c r="I45">
-        <v>0.00908645098209381</v>
+        <v>0.009323397338390351</v>
       </c>
       <c r="J45">
-        <v>51.18</v>
+        <v>49.37</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1710,13 +1710,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.9567623637160476</v>
+        <v>1.217519544760386</v>
       </c>
       <c r="D46">
-        <v>1.806921625137329</v>
+        <v>1.884719605445862</v>
       </c>
       <c r="E46">
-        <v>51.17</v>
+        <v>49.28</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1725,10 +1725,10 @@
         <v>44</v>
       </c>
       <c r="I46">
-        <v>0.009094076907634734</v>
+        <v>0.009320978903770446</v>
       </c>
       <c r="J46">
-        <v>51.17</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1739,13 +1739,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.957038187250799</v>
+        <v>1.21656859503852</v>
       </c>
       <c r="D47">
-        <v>1.807901287078857</v>
+        <v>1.884464273452759</v>
       </c>
       <c r="E47">
-        <v>51.1</v>
+        <v>49.38</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1754,10 +1754,10 @@
         <v>45</v>
       </c>
       <c r="I47">
-        <v>0.009086979806423187</v>
+        <v>0.00932421624660492</v>
       </c>
       <c r="J47">
-        <v>51.1</v>
+        <v>49.38</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1768,13 +1768,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.9557647634525688</v>
+        <v>1.21674672709571</v>
       </c>
       <c r="D48">
-        <v>1.806742191314697</v>
+        <v>1.885056939125061</v>
       </c>
       <c r="E48">
-        <v>51.01</v>
+        <v>49.52</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1783,10 +1783,39 @@
         <v>46</v>
       </c>
       <c r="I48">
-        <v>0.009087828195095063</v>
+        <v>0.009326378464698791</v>
       </c>
       <c r="J48">
-        <v>51.01</v>
+        <v>49.52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>1.217466417683496</v>
+      </c>
+      <c r="D49">
+        <v>1.883657088279724</v>
+      </c>
+      <c r="E49">
+        <v>49.46</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>47</v>
+      </c>
+      <c r="I49">
+        <v>0.00932148848772049</v>
+      </c>
+      <c r="J49">
+        <v>49.46</v>
       </c>
     </row>
   </sheetData>
